--- a/Full_MOSFET/FULL MOSFET_ID_VD  400um.xlsx
+++ b/Full_MOSFET/FULL MOSFET_ID_VD  400um.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalbe\OneDrive\Desktop\ECE220 Lab4\ece220\Full_MOSFET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3EE13074-AED2-4F48-B9C5-084501C8C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A44DDDC-DF97-4072-917A-AD72E3EFB3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STEP15_MOSFET_ID_VD_400um_x_20u" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - STEP15_MOSFET_ID_VD_400um_x_15um" description="Connection to the 'STEP15_MOSFET_ID_VD_400um_x_15um' query in the workbook." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - STEP15_MOSFET_ID_VD_400um_x_15um" description="Connection to the 'STEP15_MOSFET_ID_VD_400um_x_15um' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=STEP15_MOSFET_ID_VD_400um_x_15um;Extended Properties=&quot;&quot;" command="SELECT * FROM [STEP15_MOSFET_ID_VD_400um_x_15um]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Query - STEP15_MOSFET_ID_VD_400um_x_15um (2)" description="Connection to the 'STEP15_MOSFET_ID_VD_400um_x_15um (2)' query in the workbook." type="5" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - STEP15_MOSFET_ID_VD_400um_x_15um (2)" description="Connection to the 'STEP15_MOSFET_ID_VD_400um_x_15um (2)' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;STEP15_MOSFET_ID_VD_400um_x_15um (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [STEP15_MOSFET_ID_VD_400um_x_15um (2)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>ATTRIBUTES:</t>
   </si>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -620,10 +620,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -22445,7 +22444,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Voltage Output  (V)</a:t>
+                  <a:t>Current  Output  (Amps)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -27872,7 +27871,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Voltage Output  (V)</a:t>
+                  <a:t>Current  Output  (Amps)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -33393,7 +33392,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Voltage Output  (V)</a:t>
+                  <a:t>Current  Output  (Amps)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -38824,7 +38823,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Voltage Output  (V)</a:t>
+                  <a:t>Current  Output  (Amps)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -44251,7 +44250,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Voltage Output  (V)</a:t>
+                  <a:t>Current  Output  (Amps)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -44825,220 +44824,1233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T141"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-5.2753000000000001E-7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-4.5569000000000003E-7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-3.0109E-7</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-1.9174E-7</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-1.1215E-7</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-8.8447999999999999E-9</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3.7735E-8</v>
+      </c>
+      <c r="T2" s="1">
+        <v>9.9497999999999995E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="L3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M3" s="1">
+        <v>8.5830999999999992E-6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.3390000000000001E-5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>4.4359E-5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>6.7188999999999997E-5</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>9.0498E-5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1.1455000000000001E-4</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1.384E-4</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1.6259999999999999E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="L4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.361E-5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3.7659E-5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>7.7095000000000006E-5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1.2214999999999999E-4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.6875000000000001E-4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2.1570000000000001E-4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2.6315000000000003E-4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3.1166000000000001E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="L5" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.6815000000000001E-5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.5255E-5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>9.8851000000000006E-5</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.6459999999999999E-4</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2.3389999999999999E-4</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3.0440000000000003E-4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3.7581000000000002E-4</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4.4805000000000002E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="L6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.9174999999999999E-5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.9268999999999999E-5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.114E-4</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.9495E-4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.8630000000000002E-4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3.7984999999999999E-4</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4.7470999999999999E-4</v>
+      </c>
+      <c r="T6" s="1">
+        <v>5.7065000000000002E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="L7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.1080000000000001E-5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5.1785E-5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.177E-4</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2.1450000000000001E-4</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3.2634999999999999E-4</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4.4210000000000001E-4</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5.6033999999999999E-4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>6.8015000000000003E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="L8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2.268E-5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5.3724000000000003E-5</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.2105E-4</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2.2570000000000001E-4</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>3.5490000000000001E-4</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4.9235999999999995E-4</v>
+      </c>
+      <c r="S8" s="1">
+        <v>6.3341999999999999E-4</v>
+      </c>
+      <c r="T8" s="1">
+        <v>7.7665000000000004E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="L9" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2.4054999999999999E-5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5.5288999999999999E-5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.2320000000000001E-4</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2.3149999999999999E-4</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3.7330000000000002E-4</v>
+      </c>
+      <c r="R9" s="1">
+        <v>5.3065999999999996E-4</v>
+      </c>
+      <c r="S9" s="1">
+        <v>6.9421999999999995E-4</v>
+      </c>
+      <c r="T9" s="1">
+        <v>8.6059999999999999E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2.5265E-5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>5.6663999999999998E-5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.249E-4</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2.3465000000000001E-4</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3.837E-4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5.5783999999999999E-4</v>
+      </c>
+      <c r="S10" s="1">
+        <v>7.4275999999999997E-4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>9.3221999999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
+      <c r="L11" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.6315000000000001E-5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5.7865000000000002E-5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.2635000000000001E-4</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2.3670000000000001E-4</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3.8939999999999998E-4</v>
+      </c>
+      <c r="R11" s="1">
+        <v>5.7565999999999997E-4</v>
+      </c>
+      <c r="S11" s="1">
+        <v>7.7959999999999998E-4</v>
+      </c>
+      <c r="T11" s="1">
+        <v>9.9127999999999998E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2.7254999999999999E-5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5.8913999999999999E-5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.2760000000000001E-4</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2.3824999999999999E-4</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3.925E-4</v>
+      </c>
+      <c r="R12" s="1">
+        <v>5.8591000000000003E-4</v>
+      </c>
+      <c r="S12" s="1">
+        <v>8.0621000000000002E-4</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1.0388999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="L13" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2.8085E-5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5.9868999999999999E-5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.2875000000000001E-4</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2.397E-4</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>3.946E-4</v>
+      </c>
+      <c r="R13" s="1">
+        <v>5.9166000000000004E-4</v>
+      </c>
+      <c r="S13" s="1">
+        <v>8.2364999999999999E-4</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1.075E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
+      <c r="L14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2.8853999999999999E-5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>6.0758999999999999E-5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.2970000000000001E-4</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2.41E-4</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3.9625000000000001E-4</v>
+      </c>
+      <c r="R14" s="1">
+        <v>5.9500000000000004E-4</v>
+      </c>
+      <c r="S14" s="1">
+        <v>8.3425999999999997E-4</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1.101E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="L15" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2.9539999999999998E-5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>6.1579000000000001E-5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1.306E-4</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2.4205E-4</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>3.9791000000000002E-4</v>
+      </c>
+      <c r="R15" s="1">
+        <v>5.9721000000000004E-4</v>
+      </c>
+      <c r="S15" s="1">
+        <v>8.4037000000000001E-4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1.119E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
+      <c r="L16" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3.0168999999999999E-5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>6.2253000000000002E-5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.314E-4</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2.4305E-4</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>3.9916000000000002E-4</v>
+      </c>
+      <c r="R16" s="1">
+        <v>5.9911999999999997E-4</v>
+      </c>
+      <c r="S16" s="1">
+        <v>8.4378999999999997E-4</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1.1299999999999999E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
+      <c r="L17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3.0750000000000002E-5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>6.2898000000000007E-5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.3224999999999999E-4</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2.4405E-4</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>4.0035E-4</v>
+      </c>
+      <c r="R17" s="1">
+        <v>6.0075000000000005E-4</v>
+      </c>
+      <c r="S17" s="1">
+        <v>8.4641000000000002E-4</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1.1360000000000001E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>101</v>
       </c>
+      <c r="L18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3.1269999999999997E-5</v>
+      </c>
+      <c r="N18" s="1">
+        <v>6.3479000000000007E-5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.329E-4</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2.4486000000000001E-4</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>4.015E-4</v>
+      </c>
+      <c r="R18" s="1">
+        <v>6.0221999999999999E-4</v>
+      </c>
+      <c r="S18" s="1">
+        <v>8.4862000000000002E-4</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1.14E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>0.05</v>
       </c>
+      <c r="L19" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3.1748999999999997E-5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>6.4034000000000004E-5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.3354999999999999E-4</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2.4564999999999998E-4</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4.0245E-4</v>
+      </c>
+      <c r="R19" s="1">
+        <v>6.0362000000000002E-4</v>
+      </c>
+      <c r="S19" s="1">
+        <v>8.5055999999999999E-4</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1.1429999999999999E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L20" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3.2190000000000002E-5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>6.4541000000000004E-5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.3420000000000001E-4</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2.4641000000000002E-4</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>4.0355000000000002E-4</v>
+      </c>
+      <c r="R20" s="1">
+        <v>6.0486999999999997E-4</v>
+      </c>
+      <c r="S20" s="1">
+        <v>8.5225999999999998E-4</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1.1460000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
+      <c r="L21" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3.2594E-5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>6.5010000000000003E-5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.3469999999999999E-4</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2.4705000000000001E-4</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>4.0430000000000002E-4</v>
+      </c>
+      <c r="R21" s="1">
+        <v>6.0594000000000002E-4</v>
+      </c>
+      <c r="S21" s="1">
+        <v>8.5375000000000002E-4</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1.1479999999999999E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.2969000000000002E-5</v>
+      </c>
+      <c r="N22" s="1">
+        <v>6.5438000000000006E-5</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.3525000000000001E-4</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2.4781E-4</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>4.0506E-4</v>
+      </c>
+      <c r="R22" s="1">
+        <v>6.0716000000000003E-4</v>
+      </c>
+      <c r="S22" s="1">
+        <v>8.5506000000000004E-4</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1.1494999999999999E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
+      <c r="L23" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3.3315000000000002E-5</v>
+      </c>
+      <c r="N23" s="1">
+        <v>6.5826000000000003E-5</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.3569999999999999E-4</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2.4835999999999999E-4</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>4.0594999999999997E-4</v>
+      </c>
+      <c r="R23" s="1">
+        <v>6.0806E-4</v>
+      </c>
+      <c r="S23" s="1">
+        <v>8.5652000000000005E-4</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1.1515E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
+      <c r="L24" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3.3651E-5</v>
+      </c>
+      <c r="N24" s="1">
+        <v>6.6228000000000004E-5</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.362E-4</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2.4895000000000001E-4</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>4.0654999999999999E-4</v>
+      </c>
+      <c r="R24" s="1">
+        <v>6.0910000000000001E-4</v>
+      </c>
+      <c r="S24" s="1">
+        <v>8.5771000000000003E-4</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1.1529999999999999E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25">
         <v>0.7</v>
       </c>
+      <c r="L25" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3.3930000000000002E-5</v>
+      </c>
+      <c r="N25" s="1">
+        <v>6.6556000000000004E-5</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.3660000000000001E-4</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2.4939999999999999E-4</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>4.0735000000000001E-4</v>
+      </c>
+      <c r="R25" s="1">
+        <v>6.0995999999999999E-4</v>
+      </c>
+      <c r="S25" s="1">
+        <v>8.5890000000000001E-4</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1.1544999999999999E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="B26">
         <v>8</v>
       </c>
+      <c r="L26" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3.4204E-5</v>
+      </c>
+      <c r="N26" s="1">
+        <v>6.6872999999999995E-5</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1.3694999999999999E-4</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2.4991E-4</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>4.0795000000000002E-4</v>
+      </c>
+      <c r="R26" s="1">
+        <v>6.1076999999999995E-4</v>
+      </c>
+      <c r="S26" s="1">
+        <v>8.6014999999999996E-4</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1.1559999999999999E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27">
         <v>0.1</v>
       </c>
+      <c r="L27" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3.4464000000000001E-5</v>
+      </c>
+      <c r="N27" s="1">
+        <v>6.7199999999999994E-5</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.3735E-4</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2.5045999999999998E-4</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>4.0855999999999998E-4</v>
+      </c>
+      <c r="R27" s="1">
+        <v>6.1169000000000002E-4</v>
+      </c>
+      <c r="S27" s="1">
+        <v>8.6105000000000003E-4</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1.158E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L28" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="M28" s="1">
+        <v>3.4699000000000001E-5</v>
+      </c>
+      <c r="N28" s="1">
+        <v>6.7469000000000001E-5</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1.3765000000000001E-4</v>
+      </c>
+      <c r="P28" s="1">
+        <v>2.5091000000000002E-4</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>4.0920000000000003E-4</v>
+      </c>
+      <c r="R28" s="1">
+        <v>6.1235E-4</v>
+      </c>
+      <c r="S28" s="1">
+        <v>8.6220999999999997E-4</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1.1590000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
       </c>
+      <c r="L29" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="M29" s="1">
+        <v>3.4934000000000001E-5</v>
+      </c>
+      <c r="N29" s="1">
+        <v>6.7732999999999997E-5</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="P29" s="1">
+        <v>2.5125000000000001E-4</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>4.0975000000000001E-4</v>
+      </c>
+      <c r="R29" s="1">
+        <v>6.1315000000000002E-4</v>
+      </c>
+      <c r="S29" s="1">
+        <v>8.6315999999999997E-4</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1.16E-3</v>
+      </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
+      <c r="L30" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3.5138999999999997E-5</v>
+      </c>
+      <c r="N30" s="1">
+        <v>6.7974999999999999E-5</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1.3835E-4</v>
+      </c>
+      <c r="P30" s="1">
+        <v>2.5169999999999999E-4</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>4.103E-4</v>
+      </c>
+      <c r="R30" s="1">
+        <v>6.1386999999999998E-4</v>
+      </c>
+      <c r="S30" s="1">
+        <v>8.6415000000000005E-4</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1.1620000000000001E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>14</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
+      <c r="L31" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="M31" s="1">
+        <v>3.5339999999999997E-5</v>
+      </c>
+      <c r="N31" s="1">
+        <v>6.8213999999999994E-5</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1.3860000000000001E-4</v>
+      </c>
+      <c r="P31" s="1">
+        <v>2.521E-4</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>4.1074999999999998E-4</v>
+      </c>
+      <c r="R31" s="1">
+        <v>6.1448999999999998E-4</v>
+      </c>
+      <c r="S31" s="1">
+        <v>8.6488999999999999E-4</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1.1624999999999999E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>15</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
+      <c r="L32" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M32" s="1">
+        <v>3.5534999999999998E-5</v>
+      </c>
+      <c r="N32" s="1">
+        <v>6.8471000000000002E-5</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.3894999999999999E-4</v>
+      </c>
+      <c r="P32" s="1">
+        <v>2.5253999999999999E-4</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>4.1130000000000002E-4</v>
+      </c>
+      <c r="R32" s="1">
+        <v>6.1530000000000005E-4</v>
+      </c>
+      <c r="S32" s="1">
+        <v>8.6576000000000003E-4</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1.1640000000000001E-3</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>16</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
+      <c r="L33" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="M33" s="1">
+        <v>3.5698999999999998E-5</v>
+      </c>
+      <c r="N33" s="1">
+        <v>6.8668000000000001E-5</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1.392E-4</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2.5285999999999999E-4</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>4.1189999999999998E-4</v>
+      </c>
+      <c r="R33" s="1">
+        <v>6.1589000000000001E-4</v>
+      </c>
+      <c r="S33" s="1">
+        <v>8.6664999999999995E-4</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1.1645E-3</v>
+      </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>17</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
+      <c r="L34" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="M34" s="1">
+        <v>3.5874999999999998E-5</v>
+      </c>
+      <c r="N34" s="1">
+        <v>6.8857999999999997E-5</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1.3945E-4</v>
+      </c>
+      <c r="P34" s="1">
+        <v>2.5319999999999997E-4</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>4.1219999999999999E-4</v>
+      </c>
+      <c r="R34" s="1">
+        <v>6.1655E-4</v>
+      </c>
+      <c r="S34" s="1">
+        <v>8.6737000000000001E-4</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1.1655000000000001E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L35" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="M35" s="1">
+        <v>3.6025000000000002E-5</v>
+      </c>
+      <c r="N35" s="1">
+        <v>6.9062999999999999E-5</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1.3975000000000001E-4</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2.5349999999999998E-4</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>4.1274999999999998E-4</v>
+      </c>
+      <c r="R35" s="1">
+        <v>6.1706E-4</v>
+      </c>
+      <c r="S35" s="1">
+        <v>8.6819999999999996E-4</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1.1670000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>23</v>
       </c>
+      <c r="L36" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="M36" s="1">
+        <v>3.6174000000000003E-5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>6.9238000000000004E-5</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1.3990000000000001E-4</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2.5379999999999999E-4</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>4.1314999999999999E-4</v>
+      </c>
+      <c r="R36" s="1">
+        <v>6.1764999999999997E-4</v>
+      </c>
+      <c r="S36" s="1">
+        <v>8.6892000000000002E-4</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1.168E-3</v>
+      </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L37" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="M37" s="1">
+        <v>3.6310000000000003E-5</v>
+      </c>
+      <c r="N37" s="1">
+        <v>6.9424999999999993E-5</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1.4014999999999999E-4</v>
+      </c>
+      <c r="P37" s="1">
+        <v>2.5415000000000002E-4</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>4.1360000000000002E-4</v>
+      </c>
+      <c r="R37" s="1">
+        <v>6.1822000000000005E-4</v>
+      </c>
+      <c r="S37" s="1">
+        <v>8.6965999999999996E-4</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1.1685000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -45066,8 +46078,35 @@
       <c r="I38" t="s">
         <v>32</v>
       </c>
+      <c r="L38" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="M38" s="1">
+        <v>3.6449999999999998E-5</v>
+      </c>
+      <c r="N38" s="1">
+        <v>6.957E-5</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1.404E-4</v>
+      </c>
+      <c r="P38" s="1">
+        <v>2.5441E-4</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>4.1391000000000003E-4</v>
+      </c>
+      <c r="R38" s="1">
+        <v>6.1870000000000002E-4</v>
+      </c>
+      <c r="S38" s="1">
+        <v>8.7040999999999996E-4</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1.1695E-3</v>
+      </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -45095,8 +46134,35 @@
       <c r="I39" s="1">
         <v>9.9497999999999995E-8</v>
       </c>
+      <c r="L39" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="M39" s="1">
+        <v>3.6584000000000001E-5</v>
+      </c>
+      <c r="N39" s="1">
+        <v>6.9763000000000003E-5</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1.406E-4</v>
+      </c>
+      <c r="P39" s="1">
+        <v>2.5464999999999998E-4</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>4.1420999999999998E-4</v>
+      </c>
+      <c r="R39" s="1">
+        <v>6.1928999999999999E-4</v>
+      </c>
+      <c r="S39" s="1">
+        <v>8.7100000000000003E-4</v>
+      </c>
+      <c r="T39" s="1">
+        <v>1.1705000000000001E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>0.05</v>
       </c>
@@ -45124,8 +46190,35 @@
       <c r="I40" s="1">
         <v>1.6259999999999999E-4</v>
       </c>
+      <c r="L40" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="M40" s="1">
+        <v>3.6705000000000002E-5</v>
+      </c>
+      <c r="N40" s="1">
+        <v>6.9875000000000004E-5</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1.4075000000000001E-4</v>
+      </c>
+      <c r="P40" s="1">
+        <v>2.5495999999999998E-4</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>4.1476000000000002E-4</v>
+      </c>
+      <c r="R40" s="1">
+        <v>6.198E-4</v>
+      </c>
+      <c r="S40" s="1">
+        <v>8.7171999999999998E-4</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1.1715E-3</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>0.1</v>
       </c>
@@ -45153,8 +46246,35 @@
       <c r="I41" s="1">
         <v>3.1166000000000001E-4</v>
       </c>
+      <c r="L41" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="M41" s="1">
+        <v>3.6829999999999998E-5</v>
+      </c>
+      <c r="N41" s="1">
+        <v>7.0012999999999995E-5</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1.4095000000000001E-4</v>
+      </c>
+      <c r="P41" s="1">
+        <v>2.5514999999999999E-4</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>4.1491E-4</v>
+      </c>
+      <c r="R41" s="1">
+        <v>6.2016000000000003E-4</v>
+      </c>
+      <c r="S41" s="1">
+        <v>8.7230999999999995E-4</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1.1720000000000001E-3</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>0.15</v>
       </c>
@@ -45182,8 +46302,35 @@
       <c r="I42" s="1">
         <v>4.4805000000000002E-4</v>
       </c>
+      <c r="L42" s="1">
+        <v>2</v>
+      </c>
+      <c r="M42" s="1">
+        <v>3.6943999999999997E-5</v>
+      </c>
+      <c r="N42" s="1">
+        <v>7.0203000000000005E-5</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1.4114999999999999E-4</v>
+      </c>
+      <c r="P42" s="1">
+        <v>2.5549999999999998E-4</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>4.1540000000000001E-4</v>
+      </c>
+      <c r="R42" s="1">
+        <v>6.2074999999999999E-4</v>
+      </c>
+      <c r="S42" s="1">
+        <v>8.7306000000000005E-4</v>
+      </c>
+      <c r="T42" s="1">
+        <v>1.173E-3</v>
+      </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>0.2</v>
       </c>
@@ -45211,8 +46358,35 @@
       <c r="I43" s="1">
         <v>5.7065000000000002E-4</v>
       </c>
+      <c r="L43" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M43" s="1">
+        <v>3.7054999999999997E-5</v>
+      </c>
+      <c r="N43" s="1">
+        <v>7.0319000000000002E-5</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1.4129999999999999E-4</v>
+      </c>
+      <c r="P43" s="1">
+        <v>2.5575000000000001E-4</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>4.1575999999999999E-4</v>
+      </c>
+      <c r="R43" s="1">
+        <v>6.2120000000000003E-4</v>
+      </c>
+      <c r="S43" s="1">
+        <v>8.7370999999999998E-4</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1.1739999999999999E-3</v>
+      </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>0.25</v>
       </c>
@@ -45240,8 +46414,35 @@
       <c r="I44" s="1">
         <v>6.8015000000000003E-4</v>
       </c>
+      <c r="L44" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="M44" s="1">
+        <v>3.7165000000000001E-5</v>
+      </c>
+      <c r="N44" s="1">
+        <v>7.0438000000000006E-5</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1.4145E-4</v>
+      </c>
+      <c r="P44" s="1">
+        <v>2.5596000000000001E-4</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>4.1601000000000002E-4</v>
+      </c>
+      <c r="R44" s="1">
+        <v>6.2177E-4</v>
+      </c>
+      <c r="S44" s="1">
+        <v>8.7421999999999999E-4</v>
+      </c>
+      <c r="T44" s="1">
+        <v>1.1745E-3</v>
+      </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>0.3</v>
       </c>
@@ -45269,8 +46470,35 @@
       <c r="I45" s="1">
         <v>7.7665000000000004E-4</v>
       </c>
+      <c r="L45" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="M45" s="1">
+        <v>3.7259999999999999E-5</v>
+      </c>
+      <c r="N45" s="1">
+        <v>7.0553E-5</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1.417E-4</v>
+      </c>
+      <c r="P45" s="1">
+        <v>2.5615000000000002E-4</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>4.1635000000000001E-4</v>
+      </c>
+      <c r="R45" s="1">
+        <v>6.2208999999999995E-4</v>
+      </c>
+      <c r="S45" s="1">
+        <v>8.7498999999999997E-4</v>
+      </c>
+      <c r="T45" s="1">
+        <v>1.1754999999999999E-3</v>
+      </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>0.35</v>
       </c>
@@ -45298,8 +46526,35 @@
       <c r="I46" s="1">
         <v>8.6059999999999999E-4</v>
       </c>
+      <c r="L46" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M46" s="1">
+        <v>3.7354999999999997E-5</v>
+      </c>
+      <c r="N46" s="1">
+        <v>7.0672000000000004E-5</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1.4185000000000001E-4</v>
+      </c>
+      <c r="P46" s="1">
+        <v>2.564E-4</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>4.1669999999999999E-4</v>
+      </c>
+      <c r="R46" s="1">
+        <v>6.2250999999999995E-4</v>
+      </c>
+      <c r="S46" s="1">
+        <v>8.7535E-4</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1.176E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>0.4</v>
       </c>
@@ -45327,8 +46582,35 @@
       <c r="I47" s="1">
         <v>9.3221999999999999E-4</v>
       </c>
+      <c r="L47" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="M47" s="1">
+        <v>3.7450000000000002E-5</v>
+      </c>
+      <c r="N47" s="1">
+        <v>7.0814000000000003E-5</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1.4205000000000001E-4</v>
+      </c>
+      <c r="P47" s="1">
+        <v>2.5670000000000001E-4</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>4.1700999999999999E-4</v>
+      </c>
+      <c r="R47" s="1">
+        <v>6.2317000000000004E-4</v>
+      </c>
+      <c r="S47" s="1">
+        <v>8.7600999999999998E-4</v>
+      </c>
+      <c r="T47" s="1">
+        <v>1.1765E-3</v>
+      </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0.45</v>
       </c>
@@ -45356,8 +46638,35 @@
       <c r="I48" s="1">
         <v>9.9127999999999998E-4</v>
       </c>
+      <c r="L48" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M48" s="1">
+        <v>3.7545000000000001E-5</v>
+      </c>
+      <c r="N48" s="1">
+        <v>7.0900000000000002E-5</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1.4215000000000001E-4</v>
+      </c>
+      <c r="P48" s="1">
+        <v>2.5684999999999998E-4</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>4.1740000000000001E-4</v>
+      </c>
+      <c r="R48" s="1">
+        <v>6.2339999999999997E-4</v>
+      </c>
+      <c r="S48" s="1">
+        <v>8.7666999999999997E-4</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1.1774999999999999E-3</v>
+      </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>0.5</v>
       </c>
@@ -45385,8 +46694,35 @@
       <c r="I49" s="1">
         <v>1.0388999999999999E-3</v>
       </c>
+      <c r="L49" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="M49" s="1">
+        <v>3.7639999999999999E-5</v>
+      </c>
+      <c r="N49" s="1">
+        <v>7.1037000000000004E-5</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1.4234999999999999E-4</v>
+      </c>
+      <c r="P49" s="1">
+        <v>2.5714999999999999E-4</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>4.1764999999999999E-4</v>
+      </c>
+      <c r="R49" s="1">
+        <v>6.2385000000000001E-4</v>
+      </c>
+      <c r="S49" s="1">
+        <v>8.7704999999999999E-4</v>
+      </c>
+      <c r="T49" s="1">
+        <v>1.1785000000000001E-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -45414,8 +46750,35 @@
       <c r="I50" s="1">
         <v>1.075E-3</v>
       </c>
+      <c r="L50" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="M50" s="1">
+        <v>3.7719999999999998E-5</v>
+      </c>
+      <c r="N50" s="1">
+        <v>7.1149000000000006E-5</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1.4239999999999999E-4</v>
+      </c>
+      <c r="P50" s="1">
+        <v>2.5730000000000002E-4</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>4.1801000000000002E-4</v>
+      </c>
+      <c r="R50" s="1">
+        <v>6.2414999999999997E-4</v>
+      </c>
+      <c r="S50" s="1">
+        <v>8.7779999999999998E-4</v>
+      </c>
+      <c r="T50" s="1">
+        <v>1.1789999999999999E-3</v>
+      </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>0.6</v>
       </c>
@@ -45443,8 +46806,35 @@
       <c r="I51" s="1">
         <v>1.101E-3</v>
       </c>
+      <c r="L51" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="M51" s="1">
+        <v>3.7800999999999999E-5</v>
+      </c>
+      <c r="N51" s="1">
+        <v>7.1239E-5</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1.4255E-4</v>
+      </c>
+      <c r="P51" s="1">
+        <v>2.5745E-4</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>4.1819999999999997E-4</v>
+      </c>
+      <c r="R51" s="1">
+        <v>6.2456999999999996E-4</v>
+      </c>
+      <c r="S51" s="1">
+        <v>8.7814999999999996E-4</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1.1795E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>0.65</v>
       </c>
@@ -45472,8 +46862,35 @@
       <c r="I52" s="1">
         <v>1.119E-3</v>
       </c>
+      <c r="L52" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="M52" s="1">
+        <v>3.7889999999999998E-5</v>
+      </c>
+      <c r="N52" s="1">
+        <v>7.1369000000000001E-5</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1.428E-4</v>
+      </c>
+      <c r="P52" s="1">
+        <v>2.5775E-4</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>4.1849999999999998E-4</v>
+      </c>
+      <c r="R52" s="1">
+        <v>6.2509999999999996E-4</v>
+      </c>
+      <c r="S52" s="1">
+        <v>8.786E-4</v>
+      </c>
+      <c r="T52" s="1">
+        <v>1.1804999999999999E-3</v>
+      </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>0.7</v>
       </c>
@@ -45501,8 +46918,35 @@
       <c r="I53" s="1">
         <v>1.1299999999999999E-3</v>
       </c>
+      <c r="L53" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M53" s="1">
+        <v>3.7963999999999998E-5</v>
+      </c>
+      <c r="N53" s="1">
+        <v>7.1444000000000002E-5</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1.4285E-4</v>
+      </c>
+      <c r="P53" s="1">
+        <v>2.5785000000000001E-4</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>4.1886000000000001E-4</v>
+      </c>
+      <c r="R53" s="1">
+        <v>6.2534000000000005E-4</v>
+      </c>
+      <c r="S53" s="1">
+        <v>8.7931999999999995E-4</v>
+      </c>
+      <c r="T53" s="1">
+        <v>1.181E-3</v>
+      </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>0.75</v>
       </c>
@@ -45530,8 +46974,35 @@
       <c r="I54" s="1">
         <v>1.1360000000000001E-3</v>
       </c>
+      <c r="L54" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="M54" s="1">
+        <v>3.8050000000000003E-5</v>
+      </c>
+      <c r="N54" s="1">
+        <v>7.1574000000000003E-5</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1.4310000000000001E-4</v>
+      </c>
+      <c r="P54" s="1">
+        <v>2.5809999999999999E-4</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>4.1900999999999999E-4</v>
+      </c>
+      <c r="R54" s="1">
+        <v>6.2582000000000002E-4</v>
+      </c>
+      <c r="S54" s="1">
+        <v>8.7971000000000002E-4</v>
+      </c>
+      <c r="T54" s="1">
+        <v>1.1820000000000001E-3</v>
+      </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>0.8</v>
       </c>
@@ -45559,8 +47030,35 @@
       <c r="I55" s="1">
         <v>1.14E-3</v>
       </c>
+      <c r="L55" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="M55" s="1">
+        <v>3.8130000000000003E-5</v>
+      </c>
+      <c r="N55" s="1">
+        <v>7.1644999999999996E-5</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1.4320000000000001E-4</v>
+      </c>
+      <c r="P55" s="1">
+        <v>2.5829999999999999E-4</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>4.1934999999999997E-4</v>
+      </c>
+      <c r="R55" s="1">
+        <v>6.2606000000000001E-4</v>
+      </c>
+      <c r="S55" s="1">
+        <v>8.8020999999999998E-4</v>
+      </c>
+      <c r="T55" s="1">
+        <v>1.1825E-3</v>
+      </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>0.85</v>
       </c>
@@ -45588,8 +47086,35 @@
       <c r="I56" s="1">
         <v>1.1429999999999999E-3</v>
       </c>
+      <c r="L56" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="M56" s="1">
+        <v>3.8195000000000003E-5</v>
+      </c>
+      <c r="N56" s="1">
+        <v>7.1748999999999994E-5</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1.4329999999999999E-4</v>
+      </c>
+      <c r="P56" s="1">
+        <v>2.5845000000000002E-4</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>4.1955999999999997E-4</v>
+      </c>
+      <c r="R56" s="1">
+        <v>6.2644000000000003E-4</v>
+      </c>
+      <c r="S56" s="1">
+        <v>8.8071999999999998E-4</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1.183E-3</v>
+      </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>0.9</v>
       </c>
@@ -45617,8 +47142,35 @@
       <c r="I57" s="1">
         <v>1.1460000000000001E-3</v>
       </c>
+      <c r="L57" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="M57" s="1">
+        <v>3.8269999999999998E-5</v>
+      </c>
+      <c r="N57" s="1">
+        <v>7.1849999999999998E-5</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1.4349999999999999E-4</v>
+      </c>
+      <c r="P57" s="1">
+        <v>2.5876000000000002E-4</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>4.1985999999999998E-4</v>
+      </c>
+      <c r="R57" s="1">
+        <v>6.2688999999999996E-4</v>
+      </c>
+      <c r="S57" s="1">
+        <v>8.8115999999999997E-4</v>
+      </c>
+      <c r="T57" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>0.95</v>
       </c>
@@ -45646,8 +47198,35 @@
       <c r="I58" s="1">
         <v>1.1479999999999999E-3</v>
       </c>
+      <c r="L58" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="M58" s="1">
+        <v>3.8349999999999997E-5</v>
+      </c>
+      <c r="N58" s="1">
+        <v>7.1928000000000007E-5</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1.4354999999999999E-4</v>
+      </c>
+      <c r="P58" s="1">
+        <v>2.588E-4</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>4.2011000000000001E-4</v>
+      </c>
+      <c r="R58" s="1">
+        <v>6.2721999999999995E-4</v>
+      </c>
+      <c r="S58" s="1">
+        <v>8.8181999999999996E-4</v>
+      </c>
+      <c r="T58" s="1">
+        <v>1.1839999999999999E-3</v>
+      </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -45675,8 +47254,35 @@
       <c r="I59" s="1">
         <v>1.1494999999999999E-3</v>
       </c>
+      <c r="L59" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="M59" s="1">
+        <v>3.8414999999999997E-5</v>
+      </c>
+      <c r="N59" s="1">
+        <v>7.2025000000000002E-5</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1.4375E-4</v>
+      </c>
+      <c r="P59" s="1">
+        <v>2.5910000000000001E-4</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>4.2030000000000002E-4</v>
+      </c>
+      <c r="R59" s="1">
+        <v>6.2755000000000005E-4</v>
+      </c>
+      <c r="S59" s="1">
+        <v>8.8214999999999995E-4</v>
+      </c>
+      <c r="T59" s="1">
+        <v>1.1845E-3</v>
+      </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1.05</v>
       </c>
@@ -45704,8 +47310,35 @@
       <c r="I60" s="1">
         <v>1.1515E-3</v>
       </c>
+      <c r="L60" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="M60" s="1">
+        <v>3.8489999999999999E-5</v>
+      </c>
+      <c r="N60" s="1">
+        <v>7.2095999999999995E-5</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1.438E-4</v>
+      </c>
+      <c r="P60" s="1">
+        <v>2.5921000000000001E-4</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>4.2069999999999998E-4</v>
+      </c>
+      <c r="R60" s="1">
+        <v>6.2781999999999996E-4</v>
+      </c>
+      <c r="S60" s="1">
+        <v>8.8259999999999999E-4</v>
+      </c>
+      <c r="T60" s="1">
+        <v>1.1854999999999999E-3</v>
+      </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -45733,8 +47366,35 @@
       <c r="I61" s="1">
         <v>1.1529999999999999E-3</v>
       </c>
+      <c r="L61" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="M61" s="1">
+        <v>3.8559999999999997E-5</v>
+      </c>
+      <c r="N61" s="1">
+        <v>7.2188999999999996E-5</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1.4385E-4</v>
+      </c>
+      <c r="P61" s="1">
+        <v>2.5934999999999999E-4</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>4.2085000000000001E-4</v>
+      </c>
+      <c r="R61" s="1">
+        <v>6.2819999999999998E-4</v>
+      </c>
+      <c r="S61" s="1">
+        <v>8.8301000000000004E-4</v>
+      </c>
+      <c r="T61" s="1">
+        <v>1.186E-3</v>
+      </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>1.1499999999999999</v>
       </c>
@@ -45762,8 +47422,35 @@
       <c r="I62" s="1">
         <v>1.1544999999999999E-3</v>
       </c>
+      <c r="L62" s="1">
+        <v>3</v>
+      </c>
+      <c r="M62" s="1">
+        <v>3.8628999999999999E-5</v>
+      </c>
+      <c r="N62" s="1">
+        <v>7.2318999999999997E-5</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1.4410000000000001E-4</v>
+      </c>
+      <c r="P62" s="1">
+        <v>2.5961000000000002E-4</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>4.2115000000000002E-4</v>
+      </c>
+      <c r="R62" s="1">
+        <v>6.2859000000000005E-4</v>
+      </c>
+      <c r="S62" s="1">
+        <v>8.8354999999999998E-4</v>
+      </c>
+      <c r="T62" s="1">
+        <v>1.1865000000000001E-3</v>
+      </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>1.2</v>
       </c>
@@ -45791,8 +47478,35 @@
       <c r="I63" s="1">
         <v>1.1559999999999999E-3</v>
       </c>
+      <c r="L63" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="M63" s="1">
+        <v>3.8685E-5</v>
+      </c>
+      <c r="N63" s="1">
+        <v>7.2366999999999993E-5</v>
+      </c>
+      <c r="O63" s="1">
+        <v>1.4415000000000001E-4</v>
+      </c>
+      <c r="P63" s="1">
+        <v>2.5970000000000002E-4</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>4.2140999999999999E-4</v>
+      </c>
+      <c r="R63" s="1">
+        <v>6.2892000000000004E-4</v>
+      </c>
+      <c r="S63" s="1">
+        <v>8.8396999999999998E-4</v>
+      </c>
+      <c r="T63" s="1">
+        <v>1.1875E-3</v>
+      </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>1.25</v>
       </c>
@@ -45820,8 +47534,35 @@
       <c r="I64" s="1">
         <v>1.158E-3</v>
       </c>
+      <c r="L64" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>3.8754000000000002E-5</v>
+      </c>
+      <c r="N64" s="1">
+        <v>7.2483000000000004E-5</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1.4435000000000001E-4</v>
+      </c>
+      <c r="P64" s="1">
+        <v>2.5991000000000002E-4</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>4.216E-4</v>
+      </c>
+      <c r="R64" s="1">
+        <v>6.2931E-4</v>
+      </c>
+      <c r="S64" s="1">
+        <v>8.8440999999999997E-4</v>
+      </c>
+      <c r="T64" s="1">
+        <v>1.1875E-3</v>
+      </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>1.3</v>
       </c>
@@ -45849,8 +47590,35 @@
       <c r="I65" s="1">
         <v>1.1590000000000001E-3</v>
       </c>
+      <c r="L65" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="M65" s="1">
+        <v>3.8828999999999997E-5</v>
+      </c>
+      <c r="N65" s="1">
+        <v>7.2534999999999996E-5</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1.4440000000000001E-4</v>
+      </c>
+      <c r="P65" s="1">
+        <v>2.6005000000000001E-4</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>4.2190000000000001E-4</v>
+      </c>
+      <c r="R65" s="1">
+        <v>6.2954000000000005E-4</v>
+      </c>
+      <c r="S65" s="1">
+        <v>8.8495000000000002E-4</v>
+      </c>
+      <c r="T65" s="1">
+        <v>1.188E-3</v>
+      </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>1.35</v>
       </c>
@@ -45878,8 +47646,35 @@
       <c r="I66" s="1">
         <v>1.16E-3</v>
       </c>
+      <c r="L66" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="M66" s="1">
+        <v>3.8890000000000002E-5</v>
+      </c>
+      <c r="N66" s="1">
+        <v>7.2606000000000002E-5</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1.4449999999999999E-4</v>
+      </c>
+      <c r="P66" s="1">
+        <v>2.6016E-4</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>4.2211000000000001E-4</v>
+      </c>
+      <c r="R66" s="1">
+        <v>6.2996000000000005E-4</v>
+      </c>
+      <c r="S66" s="1">
+        <v>8.8515999999999996E-4</v>
+      </c>
+      <c r="T66" s="1">
+        <v>1.189E-3</v>
+      </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>1.4</v>
       </c>
@@ -45907,8 +47702,35 @@
       <c r="I67" s="1">
         <v>1.1620000000000001E-3</v>
       </c>
+      <c r="L67" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="M67" s="1">
+        <v>3.8940000000000003E-5</v>
+      </c>
+      <c r="N67" s="1">
+        <v>7.271E-5</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1.4469999999999999E-4</v>
+      </c>
+      <c r="P67" s="1">
+        <v>2.6046000000000001E-4</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>4.2235999999999999E-4</v>
+      </c>
+      <c r="R67" s="1">
+        <v>6.3035000000000001E-4</v>
+      </c>
+      <c r="S67" s="1">
+        <v>8.8566000000000003E-4</v>
+      </c>
+      <c r="T67" s="1">
+        <v>1.1895E-3</v>
+      </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>1.45</v>
       </c>
@@ -45936,8 +47758,35 @@
       <c r="I68" s="1">
         <v>1.1624999999999999E-3</v>
       </c>
+      <c r="L68" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="M68" s="1">
+        <v>3.9008999999999999E-5</v>
+      </c>
+      <c r="N68" s="1">
+        <v>7.2773000000000003E-5</v>
+      </c>
+      <c r="O68" s="1">
+        <v>1.448E-4</v>
+      </c>
+      <c r="P68" s="1">
+        <v>2.6060999999999999E-4</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>4.2260000000000003E-4</v>
+      </c>
+      <c r="R68" s="1">
+        <v>6.3049999999999998E-4</v>
+      </c>
+      <c r="S68" s="1">
+        <v>8.8626000000000004E-4</v>
+      </c>
+      <c r="T68" s="1">
+        <v>1.1900000000000001E-3</v>
+      </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>1.5</v>
       </c>
@@ -45965,8 +47814,35 @@
       <c r="I69" s="1">
         <v>1.1640000000000001E-3</v>
       </c>
+      <c r="L69" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="M69" s="1">
+        <v>3.9069000000000002E-5</v>
+      </c>
+      <c r="N69" s="1">
+        <v>7.2878000000000003E-5</v>
+      </c>
+      <c r="O69" s="1">
+        <v>1.449E-4</v>
+      </c>
+      <c r="P69" s="1">
+        <v>2.6076000000000002E-4</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>4.2275E-4</v>
+      </c>
+      <c r="R69" s="1">
+        <v>6.3091000000000004E-4</v>
+      </c>
+      <c r="S69" s="1">
+        <v>8.8650000000000003E-4</v>
+      </c>
+      <c r="T69" s="1">
+        <v>1.1904999999999999E-3</v>
+      </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>1.55</v>
       </c>
@@ -45994,8 +47870,35 @@
       <c r="I70" s="1">
         <v>1.1645E-3</v>
       </c>
+      <c r="L70" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="M70" s="1">
+        <v>3.913E-5</v>
+      </c>
+      <c r="N70" s="1">
+        <v>7.2934000000000003E-5</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1.4495E-4</v>
+      </c>
+      <c r="P70" s="1">
+        <v>2.6094999999999997E-4</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>4.2309999999999998E-4</v>
+      </c>
+      <c r="R70" s="1">
+        <v>6.3108999999999995E-4</v>
+      </c>
+      <c r="S70" s="1">
+        <v>8.8694999999999996E-4</v>
+      </c>
+      <c r="T70" s="1">
+        <v>1.191E-3</v>
+      </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>1.6</v>
       </c>
@@ -46023,8 +47926,35 @@
       <c r="I71" s="1">
         <v>1.1655000000000001E-3</v>
       </c>
+      <c r="L71" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="M71" s="1">
+        <v>3.9184000000000003E-5</v>
+      </c>
+      <c r="N71" s="1">
+        <v>7.3015999999999993E-5</v>
+      </c>
+      <c r="O71" s="1">
+        <v>1.451E-4</v>
+      </c>
+      <c r="P71" s="1">
+        <v>2.6101E-4</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>4.2325000000000002E-4</v>
+      </c>
+      <c r="R71" s="1">
+        <v>6.3153999999999999E-4</v>
+      </c>
+      <c r="S71" s="1">
+        <v>8.8739000000000005E-4</v>
+      </c>
+      <c r="T71" s="1">
+        <v>1.1915000000000001E-3</v>
+      </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>1.65</v>
       </c>
@@ -46052,8 +47982,35 @@
       <c r="I72" s="1">
         <v>1.1670000000000001E-3</v>
       </c>
+      <c r="L72" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="M72" s="1">
+        <v>3.9255000000000003E-5</v>
+      </c>
+      <c r="N72" s="1">
+        <v>7.3139000000000006E-5</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1.4520000000000001E-4</v>
+      </c>
+      <c r="P72" s="1">
+        <v>2.6131E-4</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>4.2350999999999999E-4</v>
+      </c>
+      <c r="R72" s="1">
+        <v>6.3186999999999998E-4</v>
+      </c>
+      <c r="S72" s="1">
+        <v>8.8769000000000001E-4</v>
+      </c>
+      <c r="T72" s="1">
+        <v>1.1925E-3</v>
+      </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>1.7</v>
       </c>
@@ -46081,8 +48038,35 @@
       <c r="I73" s="1">
         <v>1.168E-3</v>
       </c>
+      <c r="L73" s="1">
+        <v>3.55</v>
+      </c>
+      <c r="M73" s="1">
+        <v>3.9308999999999999E-5</v>
+      </c>
+      <c r="N73" s="1">
+        <v>7.3180000000000001E-5</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1.4530000000000001E-4</v>
+      </c>
+      <c r="P73" s="1">
+        <v>2.6134999999999998E-4</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>4.237E-4</v>
+      </c>
+      <c r="R73" s="1">
+        <v>6.3210999999999996E-4</v>
+      </c>
+      <c r="S73" s="1">
+        <v>8.8820000000000001E-4</v>
+      </c>
+      <c r="T73" s="1">
+        <v>1.1925E-3</v>
+      </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>1.75</v>
       </c>
@@ -46110,8 +48094,35 @@
       <c r="I74" s="1">
         <v>1.1685000000000001E-3</v>
       </c>
+      <c r="L74" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="M74" s="1">
+        <v>3.9354000000000003E-5</v>
+      </c>
+      <c r="N74" s="1">
+        <v>7.3264999999999997E-5</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1.4545000000000001E-4</v>
+      </c>
+      <c r="P74" s="1">
+        <v>2.6154999999999999E-4</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>4.2384999999999998E-4</v>
+      </c>
+      <c r="R74" s="1">
+        <v>6.3246000000000005E-4</v>
+      </c>
+      <c r="S74" s="1">
+        <v>8.8862000000000001E-4</v>
+      </c>
+      <c r="T74" s="1">
+        <v>1.193E-3</v>
+      </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>1.8</v>
       </c>
@@ -46139,8 +48150,35 @@
       <c r="I75" s="1">
         <v>1.1695E-3</v>
       </c>
+      <c r="L75" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="M75" s="1">
+        <v>3.9419000000000003E-5</v>
+      </c>
+      <c r="N75" s="1">
+        <v>7.3339999999999999E-5</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1.4554999999999999E-4</v>
+      </c>
+      <c r="P75" s="1">
+        <v>2.6171000000000001E-4</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>4.2424999999999999E-4</v>
+      </c>
+      <c r="R75" s="1">
+        <v>6.3270000000000004E-4</v>
+      </c>
+      <c r="S75" s="1">
+        <v>8.8900000000000003E-4</v>
+      </c>
+      <c r="T75" s="1">
+        <v>1.194E-3</v>
+      </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>1.85</v>
       </c>
@@ -46168,8 +48206,35 @@
       <c r="I76" s="1">
         <v>1.1705000000000001E-3</v>
       </c>
+      <c r="L76" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="M76" s="1">
+        <v>3.9478999999999999E-5</v>
+      </c>
+      <c r="N76" s="1">
+        <v>7.3403000000000002E-5</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1.4559999999999999E-4</v>
+      </c>
+      <c r="P76" s="1">
+        <v>2.6180000000000002E-4</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>4.2445999999999998E-4</v>
+      </c>
+      <c r="R76" s="1">
+        <v>6.3305999999999996E-4</v>
+      </c>
+      <c r="S76" s="1">
+        <v>8.8935999999999996E-4</v>
+      </c>
+      <c r="T76" s="1">
+        <v>1.1945E-3</v>
+      </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>1.9</v>
       </c>
@@ -46197,8 +48262,35 @@
       <c r="I77" s="1">
         <v>1.1715E-3</v>
       </c>
+      <c r="L77" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="M77" s="1">
+        <v>3.9539999999999998E-5</v>
+      </c>
+      <c r="N77" s="1">
+        <v>7.3492999999999996E-5</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1.4579999999999999E-4</v>
+      </c>
+      <c r="P77" s="1">
+        <v>2.6201000000000002E-4</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>4.2461000000000002E-4</v>
+      </c>
+      <c r="R77" s="1">
+        <v>6.3336000000000002E-4</v>
+      </c>
+      <c r="S77" s="1">
+        <v>8.8980999999999999E-4</v>
+      </c>
+      <c r="T77" s="1">
+        <v>1.1945E-3</v>
+      </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>1.95</v>
       </c>
@@ -46226,8 +48318,35 @@
       <c r="I78" s="1">
         <v>1.1720000000000001E-3</v>
       </c>
+      <c r="L78" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="M78" s="1">
+        <v>3.96E-5</v>
+      </c>
+      <c r="N78" s="1">
+        <v>7.3545000000000001E-5</v>
+      </c>
+      <c r="O78" s="1">
+        <v>1.4584999999999999E-4</v>
+      </c>
+      <c r="P78" s="1">
+        <v>2.6216E-4</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>4.2480000000000003E-4</v>
+      </c>
+      <c r="R78" s="1">
+        <v>6.3356999999999997E-4</v>
+      </c>
+      <c r="S78" s="1">
+        <v>8.9015999999999997E-4</v>
+      </c>
+      <c r="T78" s="1">
+        <v>1.1950000000000001E-3</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -46255,8 +48374,35 @@
       <c r="I79" s="1">
         <v>1.173E-3</v>
       </c>
+      <c r="L79" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="M79" s="1">
+        <v>3.9653999999999997E-5</v>
+      </c>
+      <c r="N79" s="1">
+        <v>7.3629999999999998E-5</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1.46E-4</v>
+      </c>
+      <c r="P79" s="1">
+        <v>2.6240999999999998E-4</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>4.2506E-4</v>
+      </c>
+      <c r="R79" s="1">
+        <v>6.3394999999999999E-4</v>
+      </c>
+      <c r="S79" s="1">
+        <v>8.9061000000000001E-4</v>
+      </c>
+      <c r="T79" s="1">
+        <v>1.196E-3</v>
+      </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>2.0499999999999998</v>
       </c>
@@ -46284,8 +48430,35 @@
       <c r="I80" s="1">
         <v>1.1739999999999999E-3</v>
       </c>
+      <c r="L80" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="M80" s="1">
+        <v>3.9709999999999998E-5</v>
+      </c>
+      <c r="N80" s="1">
+        <v>7.3694000000000003E-5</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1.461E-4</v>
+      </c>
+      <c r="P80" s="1">
+        <v>2.6245000000000001E-4</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>4.2525000000000001E-4</v>
+      </c>
+      <c r="R80" s="1">
+        <v>6.3431000000000002E-4</v>
+      </c>
+      <c r="S80" s="1">
+        <v>8.9106000000000005E-4</v>
+      </c>
+      <c r="T80" s="1">
+        <v>1.196E-3</v>
+      </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>2.1</v>
       </c>
@@ -46313,8 +48486,35 @@
       <c r="I81" s="1">
         <v>1.1745E-3</v>
       </c>
+      <c r="L81" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="M81" s="1">
+        <v>3.9764000000000001E-5</v>
+      </c>
+      <c r="N81" s="1">
+        <v>7.3761000000000001E-5</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1.461E-4</v>
+      </c>
+      <c r="P81" s="1">
+        <v>2.6256000000000001E-4</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>4.2546000000000001E-4</v>
+      </c>
+      <c r="R81" s="1">
+        <v>6.3449000000000003E-4</v>
+      </c>
+      <c r="S81" s="1">
+        <v>8.9136E-4</v>
+      </c>
+      <c r="T81" s="1">
+        <v>1.1965000000000001E-3</v>
+      </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>2.15</v>
       </c>
@@ -46342,8 +48542,35 @@
       <c r="I82" s="1">
         <v>1.1754999999999999E-3</v>
       </c>
+      <c r="L82" s="1">
+        <v>4</v>
+      </c>
+      <c r="M82" s="1">
+        <v>3.9824999999999999E-5</v>
+      </c>
+      <c r="N82" s="1">
+        <v>7.3854000000000001E-5</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1.4635000000000001E-4</v>
+      </c>
+      <c r="P82" s="1">
+        <v>2.6279999999999999E-4</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>4.2565000000000002E-4</v>
+      </c>
+      <c r="R82" s="1">
+        <v>6.3497E-4</v>
+      </c>
+      <c r="S82" s="1">
+        <v>8.9170999999999999E-4</v>
+      </c>
+      <c r="T82" s="1">
+        <v>1.1975E-3</v>
+      </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -46371,8 +48598,35 @@
       <c r="I83" s="1">
         <v>1.176E-3</v>
       </c>
+      <c r="L83" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="M83" s="1">
+        <v>3.9870000000000003E-5</v>
+      </c>
+      <c r="N83" s="1">
+        <v>7.3894999999999996E-5</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1.4635000000000001E-4</v>
+      </c>
+      <c r="P83" s="1">
+        <v>2.6289999999999999E-4</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>4.2590999999999999E-4</v>
+      </c>
+      <c r="R83" s="1">
+        <v>6.3506000000000001E-4</v>
+      </c>
+      <c r="S83" s="1">
+        <v>8.9209999999999995E-4</v>
+      </c>
+      <c r="T83" s="1">
+        <v>1.1980000000000001E-3</v>
+      </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>2.25</v>
       </c>
@@ -46400,8 +48654,35 @@
       <c r="I84" s="1">
         <v>1.1765E-3</v>
       </c>
+      <c r="L84" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M84" s="1">
+        <v>3.9935000000000003E-5</v>
+      </c>
+      <c r="N84" s="1">
+        <v>7.3980999999999995E-5</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1.4650000000000001E-4</v>
+      </c>
+      <c r="P84" s="1">
+        <v>2.6300999999999999E-4</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>4.2601E-4</v>
+      </c>
+      <c r="R84" s="1">
+        <v>6.3555999999999997E-4</v>
+      </c>
+      <c r="S84" s="1">
+        <v>8.9245999999999998E-4</v>
+      </c>
+      <c r="T84" s="1">
+        <v>1.1980000000000001E-3</v>
+      </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -46429,8 +48710,35 @@
       <c r="I85" s="1">
         <v>1.1774999999999999E-3</v>
       </c>
+      <c r="L85" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="M85" s="1">
+        <v>3.9988999999999999E-5</v>
+      </c>
+      <c r="N85" s="1">
+        <v>7.4040000000000003E-5</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1.4655000000000001E-4</v>
+      </c>
+      <c r="P85" s="1">
+        <v>2.6315000000000003E-4</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>4.2634999999999998E-4</v>
+      </c>
+      <c r="R85" s="1">
+        <v>6.3564999999999997E-4</v>
+      </c>
+      <c r="S85" s="1">
+        <v>8.9282000000000001E-4</v>
+      </c>
+      <c r="T85" s="1">
+        <v>1.199E-3</v>
+      </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>2.35</v>
       </c>
@@ -46458,8 +48766,35 @@
       <c r="I86" s="1">
         <v>1.1785000000000001E-3</v>
       </c>
+      <c r="L86" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="M86" s="1">
+        <v>4.0045E-5</v>
+      </c>
+      <c r="N86" s="1">
+        <v>7.4115000000000004E-5</v>
+      </c>
+      <c r="O86" s="1">
+        <v>1.4664999999999999E-4</v>
+      </c>
+      <c r="P86" s="1">
+        <v>2.6334999999999998E-4</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>4.2655999999999998E-4</v>
+      </c>
+      <c r="R86" s="1">
+        <v>6.3588999999999996E-4</v>
+      </c>
+      <c r="S86" s="1">
+        <v>8.9326E-4</v>
+      </c>
+      <c r="T86" s="1">
+        <v>1.199E-3</v>
+      </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>2.4</v>
       </c>
@@ -46487,8 +48822,35 @@
       <c r="I87" s="1">
         <v>1.1789999999999999E-3</v>
       </c>
+      <c r="L87" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="M87" s="1">
+        <v>4.0095000000000002E-5</v>
+      </c>
+      <c r="N87" s="1">
+        <v>7.4219000000000002E-5</v>
+      </c>
+      <c r="O87" s="1">
+        <v>1.4684999999999999E-4</v>
+      </c>
+      <c r="P87" s="1">
+        <v>2.6355999999999998E-4</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>4.2674999999999999E-4</v>
+      </c>
+      <c r="R87" s="1">
+        <v>6.3630999999999996E-4</v>
+      </c>
+      <c r="S87" s="1">
+        <v>8.9355999999999995E-4</v>
+      </c>
+      <c r="T87" s="1">
+        <v>1.1995E-3</v>
+      </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>2.4500000000000002</v>
       </c>
@@ -46516,8 +48878,35 @@
       <c r="I88" s="1">
         <v>1.1795E-3</v>
       </c>
+      <c r="L88" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="M88" s="1">
+        <v>4.0160000000000002E-5</v>
+      </c>
+      <c r="N88" s="1">
+        <v>7.4238000000000003E-5</v>
+      </c>
+      <c r="O88" s="1">
+        <v>1.4684999999999999E-4</v>
+      </c>
+      <c r="P88" s="1">
+        <v>2.6360000000000001E-4</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>4.2690000000000002E-4</v>
+      </c>
+      <c r="R88" s="1">
+        <v>6.3646000000000004E-4</v>
+      </c>
+      <c r="S88" s="1">
+        <v>8.9400999999999999E-4</v>
+      </c>
+      <c r="T88" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>2.5</v>
       </c>
@@ -46545,8 +48934,35 @@
       <c r="I89" s="1">
         <v>1.1804999999999999E-3</v>
       </c>
+      <c r="L89" s="1">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M89" s="1">
+        <v>4.0219999999999998E-5</v>
+      </c>
+      <c r="N89" s="1">
+        <v>7.4352999999999998E-5</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1.47E-4</v>
+      </c>
+      <c r="P89" s="1">
+        <v>2.6380000000000002E-4</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>4.2709999999999997E-4</v>
+      </c>
+      <c r="R89" s="1">
+        <v>6.3685E-4</v>
+      </c>
+      <c r="S89" s="1">
+        <v>8.9437000000000002E-4</v>
+      </c>
+      <c r="T89" s="1">
+        <v>1.2005E-3</v>
+      </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>2.5499999999999998</v>
       </c>
@@ -46574,8 +48990,35 @@
       <c r="I90" s="1">
         <v>1.181E-3</v>
       </c>
+      <c r="L90" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M90" s="1">
+        <v>4.0269999999999999E-5</v>
+      </c>
+      <c r="N90" s="1">
+        <v>7.4412000000000005E-5</v>
+      </c>
+      <c r="O90" s="1">
+        <v>1.471E-4</v>
+      </c>
+      <c r="P90" s="1">
+        <v>2.6390000000000002E-4</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>4.2731000000000003E-4</v>
+      </c>
+      <c r="R90" s="1">
+        <v>6.3705000000000001E-4</v>
+      </c>
+      <c r="S90" s="1">
+        <v>8.9481000000000001E-4</v>
+      </c>
+      <c r="T90" s="1">
+        <v>1.201E-3</v>
+      </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>2.6</v>
       </c>
@@ -46603,8 +49046,35 @@
       <c r="I91" s="1">
         <v>1.1820000000000001E-3</v>
       </c>
+      <c r="L91" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="M91" s="1">
+        <v>4.0330000000000002E-5</v>
+      </c>
+      <c r="N91" s="1">
+        <v>7.4475999999999996E-5</v>
+      </c>
+      <c r="O91" s="1">
+        <v>1.4715E-4</v>
+      </c>
+      <c r="P91" s="1">
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>4.2749999999999998E-4</v>
+      </c>
+      <c r="R91" s="1">
+        <v>6.3734999999999996E-4</v>
+      </c>
+      <c r="S91" s="1">
+        <v>8.9514E-4</v>
+      </c>
+      <c r="T91" s="1">
+        <v>1.2015000000000001E-3</v>
+      </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>2.65</v>
       </c>
@@ -46632,8 +49102,35 @@
       <c r="I92" s="1">
         <v>1.1825E-3</v>
       </c>
+      <c r="L92" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="M92" s="1">
+        <v>4.0395000000000002E-5</v>
+      </c>
+      <c r="N92" s="1">
+        <v>7.4595E-5</v>
+      </c>
+      <c r="O92" s="1">
+        <v>1.4735E-4</v>
+      </c>
+      <c r="P92" s="1">
+        <v>2.6429999999999997E-4</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>4.2775000000000002E-4</v>
+      </c>
+      <c r="R92" s="1">
+        <v>6.378E-4</v>
+      </c>
+      <c r="S92" s="1">
+        <v>8.9550000000000003E-4</v>
+      </c>
+      <c r="T92" s="1">
+        <v>1.2019999999999999E-3</v>
+      </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>2.7</v>
       </c>
@@ -46661,8 +49158,35 @@
       <c r="I93" s="1">
         <v>1.183E-3</v>
       </c>
+      <c r="L93" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="M93" s="1">
+        <v>4.0454999999999998E-5</v>
+      </c>
+      <c r="N93" s="1">
+        <v>7.4632E-5</v>
+      </c>
+      <c r="O93" s="1">
+        <v>1.474E-4</v>
+      </c>
+      <c r="P93" s="1">
+        <v>2.6441000000000002E-4</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>4.2800999999999999E-4</v>
+      </c>
+      <c r="R93" s="1">
+        <v>6.3801000000000005E-4</v>
+      </c>
+      <c r="S93" s="1">
+        <v>8.9601000000000004E-4</v>
+      </c>
+      <c r="T93" s="1">
+        <v>1.2025E-3</v>
+      </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>2.75</v>
       </c>
@@ -46690,8 +49214,35 @@
       <c r="I94" s="1">
         <v>1.1839999999999999E-3</v>
       </c>
+      <c r="L94" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M94" s="1">
+        <v>4.0519999999999998E-5</v>
+      </c>
+      <c r="N94" s="1">
+        <v>7.4733000000000004E-5</v>
+      </c>
+      <c r="O94" s="1">
+        <v>1.4755000000000001E-4</v>
+      </c>
+      <c r="P94" s="1">
+        <v>2.6455000000000001E-4</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>4.2810999999999999E-4</v>
+      </c>
+      <c r="R94" s="1">
+        <v>6.3822E-4</v>
+      </c>
+      <c r="S94" s="1">
+        <v>8.9614999999999996E-4</v>
+      </c>
+      <c r="T94" s="1">
+        <v>1.2030000000000001E-3</v>
+      </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>2.8</v>
       </c>
@@ -46719,8 +49270,35 @@
       <c r="I95" s="1">
         <v>1.1839999999999999E-3</v>
       </c>
+      <c r="L95" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="M95" s="1">
+        <v>4.0593999999999998E-5</v>
+      </c>
+      <c r="N95" s="1">
+        <v>7.4789000000000005E-5</v>
+      </c>
+      <c r="O95" s="1">
+        <v>1.4765000000000001E-4</v>
+      </c>
+      <c r="P95" s="1">
+        <v>2.6475000000000001E-4</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>4.2841E-4</v>
+      </c>
+      <c r="R95" s="1">
+        <v>6.3851000000000001E-4</v>
+      </c>
+      <c r="S95" s="1">
+        <v>8.9674999999999998E-4</v>
+      </c>
+      <c r="T95" s="1">
+        <v>1.2034999999999999E-3</v>
+      </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>2.85</v>
       </c>
@@ -46748,8 +49326,35 @@
       <c r="I96" s="1">
         <v>1.1845E-3</v>
       </c>
+      <c r="L96" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="M96" s="1">
+        <v>4.0654000000000001E-5</v>
+      </c>
+      <c r="N96" s="1">
+        <v>7.4875000000000004E-5</v>
+      </c>
+      <c r="O96" s="1">
+        <v>1.4770000000000001E-4</v>
+      </c>
+      <c r="P96" s="1">
+        <v>2.6485000000000001E-4</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>4.2855999999999998E-4</v>
+      </c>
+      <c r="R96" s="1">
+        <v>6.3869000000000003E-4</v>
+      </c>
+      <c r="S96" s="1">
+        <v>8.9702E-4</v>
+      </c>
+      <c r="T96" s="1">
+        <v>1.204E-3</v>
+      </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>2.9</v>
       </c>
@@ -46777,8 +49382,35 @@
       <c r="I97" s="1">
         <v>1.1854999999999999E-3</v>
       </c>
+      <c r="L97" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="M97" s="1">
+        <v>4.0729999999999998E-5</v>
+      </c>
+      <c r="N97" s="1">
+        <v>7.4975000000000006E-5</v>
+      </c>
+      <c r="O97" s="1">
+        <v>1.4789999999999999E-4</v>
+      </c>
+      <c r="P97" s="1">
+        <v>2.6510999999999999E-4</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>4.2881000000000001E-4</v>
+      </c>
+      <c r="R97" s="1">
+        <v>6.3920000000000003E-4</v>
+      </c>
+      <c r="S97" s="1">
+        <v>8.9734999999999999E-4</v>
+      </c>
+      <c r="T97" s="1">
+        <v>1.2045000000000001E-3</v>
+      </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>2.95</v>
       </c>
@@ -46806,8 +49438,35 @@
       <c r="I98" s="1">
         <v>1.186E-3</v>
       </c>
+      <c r="L98" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="M98" s="1">
+        <v>4.0809000000000002E-5</v>
+      </c>
+      <c r="N98" s="1">
+        <v>7.5053000000000001E-5</v>
+      </c>
+      <c r="O98" s="1">
+        <v>1.4794999999999999E-4</v>
+      </c>
+      <c r="P98" s="1">
+        <v>2.6510999999999999E-4</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>4.2904999999999999E-4</v>
+      </c>
+      <c r="R98" s="1">
+        <v>6.3931999999999997E-4</v>
+      </c>
+      <c r="S98" s="1">
+        <v>8.9762000000000002E-4</v>
+      </c>
+      <c r="T98" s="1">
+        <v>1.2049999999999999E-3</v>
+      </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>3</v>
       </c>
@@ -46835,8 +49494,35 @@
       <c r="I99" s="1">
         <v>1.1865000000000001E-3</v>
       </c>
+      <c r="L99" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M99" s="1">
+        <v>4.0884999999999999E-5</v>
+      </c>
+      <c r="N99" s="1">
+        <v>7.5149999999999997E-5</v>
+      </c>
+      <c r="O99" s="1">
+        <v>1.4809999999999999E-4</v>
+      </c>
+      <c r="P99" s="1">
+        <v>2.6526000000000002E-4</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>4.2920000000000002E-4</v>
+      </c>
+      <c r="R99" s="1">
+        <v>6.3962000000000003E-4</v>
+      </c>
+      <c r="S99" s="1">
+        <v>8.9800000000000004E-4</v>
+      </c>
+      <c r="T99" s="1">
+        <v>1.2055E-3</v>
+      </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>3.05</v>
       </c>
@@ -46864,8 +49550,35 @@
       <c r="I100" s="1">
         <v>1.1875E-3</v>
       </c>
+      <c r="L100" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M100" s="1">
+        <v>4.0964999999999998E-5</v>
+      </c>
+      <c r="N100" s="1">
+        <v>7.5221000000000004E-5</v>
+      </c>
+      <c r="O100" s="1">
+        <v>1.4815E-4</v>
+      </c>
+      <c r="P100" s="1">
+        <v>2.6540999999999999E-4</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>4.2945E-4</v>
+      </c>
+      <c r="R100" s="1">
+        <v>6.3986000000000002E-4</v>
+      </c>
+      <c r="S100" s="1">
+        <v>8.9844999999999996E-4</v>
+      </c>
+      <c r="T100" s="1">
+        <v>1.206E-3</v>
+      </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>3.1</v>
       </c>
@@ -46893,8 +49606,35 @@
       <c r="I101" s="1">
         <v>1.1875E-3</v>
       </c>
+      <c r="L101" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="M101" s="1">
+        <v>4.1053999999999997E-5</v>
+      </c>
+      <c r="N101" s="1">
+        <v>7.5325000000000001E-5</v>
+      </c>
+      <c r="O101" s="1">
+        <v>1.4825E-4</v>
+      </c>
+      <c r="P101" s="1">
+        <v>2.6554999999999998E-4</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>4.2969999999999998E-4</v>
+      </c>
+      <c r="R101" s="1">
+        <v>6.4021E-4</v>
+      </c>
+      <c r="S101" s="1">
+        <v>8.9875000000000003E-4</v>
+      </c>
+      <c r="T101" s="1">
+        <v>1.2065000000000001E-3</v>
+      </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>3.15</v>
       </c>
@@ -46922,8 +49662,35 @@
       <c r="I102" s="1">
         <v>1.188E-3</v>
       </c>
+      <c r="L102" s="1">
+        <v>5</v>
+      </c>
+      <c r="M102" s="1">
+        <v>4.1158999999999997E-5</v>
+      </c>
+      <c r="N102" s="1">
+        <v>7.5463000000000006E-5</v>
+      </c>
+      <c r="O102" s="1">
+        <v>1.485E-4</v>
+      </c>
+      <c r="P102" s="1">
+        <v>2.6584999999999998E-4</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>4.2989999999999999E-4</v>
+      </c>
+      <c r="R102" s="1">
+        <v>6.4059999999999996E-4</v>
+      </c>
+      <c r="S102" s="1">
+        <v>8.9919999999999996E-4</v>
+      </c>
+      <c r="T102" s="1">
+        <v>1.207E-3</v>
+      </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>3.2</v>
       </c>
@@ -46952,7 +49719,7 @@
         <v>1.189E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>3.25</v>
       </c>
@@ -46981,7 +49748,7 @@
         <v>1.1895E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>3.3</v>
       </c>
@@ -47010,7 +49777,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>3.35</v>
       </c>
@@ -47039,7 +49806,7 @@
         <v>1.1904999999999999E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>3.4</v>
       </c>
@@ -47068,7 +49835,7 @@
         <v>1.191E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>3.45</v>
       </c>
@@ -47097,7 +49864,7 @@
         <v>1.1915000000000001E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>3.5</v>
       </c>
@@ -47126,7 +49893,7 @@
         <v>1.1925E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>3.55</v>
       </c>
@@ -47155,7 +49922,7 @@
         <v>1.1925E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>3.6</v>
       </c>
@@ -47184,7 +49951,7 @@
         <v>1.193E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>3.65</v>
       </c>
@@ -48008,10 +50775,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -50982,8 +53749,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
@@ -53953,446 +56720,6 @@
         <v>3.2899999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -54400,7 +56727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -57374,11 +59701,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
